--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\QATester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\QATester\Антитренинг\2 урок\My-first-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CC8FB7-E013-4145-8863-BBB2D9EC1F3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2201E5FD-D98F-441F-9EAE-7F7A3B17438D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14352" yWindow="-24" windowWidth="17280" windowHeight="8616" xr2:uid="{24C024C3-0AEC-4049-959E-E6A7FBF8EBE6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24C024C3-0AEC-4049-959E-E6A7FBF8EBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="77">
   <si>
     <t xml:space="preserve">Название: </t>
   </si>
@@ -388,7 +388,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +398,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -579,24 +591,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -615,29 +651,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4E8003-0E48-4212-9C4D-BC6F03D00F54}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:XFD209"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,1085 +985,1158 @@
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="15"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="22" t="s">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="22" t="s">
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="23" t="s">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" s="21" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" s="21" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="21" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" s="21" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" s="21" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" s="21" customFormat="1" ht="141" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" s="21" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="22" t="s">
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="22" t="s">
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="23" t="s">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" s="21" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" s="21" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="17" t="s">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="6" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" s="21" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" s="21" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" s="21" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="6" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21">
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="9" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="14" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="22" t="s">
+    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="22" t="s">
+    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="23" t="s">
+    <row r="44" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="17" t="s">
+    <row r="45" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-    </row>
-    <row r="46" spans="1:5" s="21" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="6" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" s="21" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="1:5" s="5" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" s="21" customFormat="1" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="1:5" s="5" customFormat="1" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="17" t="s">
+    <row r="50" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-    </row>
-    <row r="51" spans="1:5" s="21" customFormat="1" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="6" t="s">
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" s="5" customFormat="1" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" s="21" customFormat="1" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="6" t="s">
+    <row r="52" spans="1:5" s="5" customFormat="1" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" s="21" customFormat="1" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="6" t="s">
+    <row r="53" spans="1:5" s="5" customFormat="1" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" s="21" customFormat="1" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="1:5" s="5" customFormat="1" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" s="21" customFormat="1" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="6" t="s">
+    <row r="55" spans="1:5" s="5" customFormat="1" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="17" t="s">
+    <row r="56" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" spans="1:5" s="21" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="6" t="s">
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" s="5" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="21">
+    <row r="58" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
         <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D61" s="15"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="9" t="s">
+      <c r="D62" s="15"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="14" t="s">
+      <c r="C63" s="17"/>
+      <c r="D63" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="8"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="22" t="s">
+    <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="8"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="22" t="s">
+    <row r="65" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="2:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="23" t="s">
+    <row r="66" spans="2:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="17" t="s">
+    <row r="67" spans="2:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-    </row>
-    <row r="68" spans="2:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="6" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="2:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="7"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="2:5" s="21" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="6" t="s">
+    <row r="69" spans="2:5" s="5" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="2:5" s="21" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="6" t="s">
+    <row r="70" spans="2:5" s="5" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="7"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="2:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="17" t="s">
+    <row r="71" spans="2:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
-    </row>
-    <row r="72" spans="2:5" s="21" customFormat="1" ht="97.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="6" t="s">
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="2:5" s="5" customFormat="1" ht="97.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="7"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="2:5" s="21" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="6" t="s">
+    <row r="73" spans="2:5" s="5" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="7"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="2:5" s="21" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="6" t="s">
+    <row r="74" spans="2:5" s="5" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="7"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="2:5" s="21" customFormat="1" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="6" t="s">
+    <row r="75" spans="2:5" s="5" customFormat="1" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="7"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="2:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="17" t="s">
+    <row r="76" spans="2:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="77" spans="2:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="6" t="s">
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="2:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="7"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="2:5" s="21" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="6" t="s">
+    <row r="78" spans="2:5" s="5" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="7"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:5" s="21" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="21">
+    <row r="79" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:5" s="5" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D82" s="15"/>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B84" s="9" t="s">
+      <c r="D83" s="15"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B84" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="14" t="s">
+      <c r="C84" s="17"/>
+      <c r="D84" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="8"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="22" t="s">
+    <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="8"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="22" t="s">
+    <row r="86" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="23" t="s">
+    <row r="87" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="17" t="s">
+    <row r="88" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="20"/>
-    </row>
-    <row r="89" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="6" t="s">
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="7"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" s="21" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="6" t="s">
+    <row r="90" spans="1:5" s="5" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="7"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" s="21" customFormat="1" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="6" t="s">
+    <row r="91" spans="1:5" s="5" customFormat="1" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="7"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="17" t="s">
+    <row r="92" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="20"/>
-    </row>
-    <row r="93" spans="1:5" s="21" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="6" t="s">
+      <c r="C92" s="10"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" s="5" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="7"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="17" t="s">
+    <row r="94" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="20"/>
-    </row>
-    <row r="95" spans="1:5" s="21" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="6" t="s">
+      <c r="C94" s="10"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" s="5" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="7"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="6" t="s">
+    <row r="96" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="7"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="21">
+    <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
         <v>6</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D100" s="15"/>
+      <c r="E100" s="14"/>
+    </row>
+    <row r="101" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="9" t="s">
+      <c r="D101" s="15"/>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:5" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="14" t="s">
+      <c r="C102" s="17"/>
+      <c r="D102" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="8"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="22" t="s">
+    <row r="103" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="18"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="8"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="22" t="s">
+    <row r="104" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="18"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="23" t="s">
+    <row r="105" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="20"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="17" t="s">
+    <row r="106" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="20"/>
-    </row>
-    <row r="107" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="6" t="s">
+      <c r="C106" s="10"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C107" s="7"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5" s="21" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="6" t="s">
+    <row r="108" spans="1:5" s="5" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C108" s="7"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="17" t="s">
+    <row r="109" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="18"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="20"/>
-    </row>
-    <row r="110" spans="1:5" s="21" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="6" t="s">
+      <c r="C109" s="10"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" s="5" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C110" s="7"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" s="21" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="6" t="s">
+    <row r="111" spans="1:5" s="5" customFormat="1" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C111" s="7"/>
+      <c r="C111" s="14"/>
       <c r="D111" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="17" t="s">
+    <row r="112" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="18"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="20"/>
-    </row>
-    <row r="113" spans="1:5" s="21" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="6" t="s">
+      <c r="C112" s="10"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" s="5" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="7"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-    </row>
-    <row r="115" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-    </row>
-    <row r="116" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="117" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="21">
+    <row r="114" spans="1:5" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+    </row>
+    <row r="115" spans="1:5" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+    </row>
+    <row r="116" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
         <v>7</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D117" s="15"/>
+      <c r="E117" s="14"/>
+    </row>
+    <row r="118" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="7"/>
-    </row>
-    <row r="119" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B119" s="9" t="s">
+      <c r="D118" s="15"/>
+      <c r="E118" s="14"/>
+    </row>
+    <row r="119" spans="1:5" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B119" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="14" t="s">
+      <c r="C119" s="17"/>
+      <c r="D119" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="8"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="22" t="s">
+    <row r="120" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="18"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="8"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="22" t="s">
+    <row r="121" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="23" t="s">
+    <row r="122" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="17" t="s">
+    <row r="123" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="20"/>
-    </row>
-    <row r="124" spans="1:5" s="21" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="6" t="s">
+      <c r="C123" s="10"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C124" s="7"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="1:5" s="21" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="6" t="s">
+    <row r="125" spans="1:5" s="5" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C125" s="7"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="1:5" s="21" customFormat="1" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="6" t="s">
+    <row r="126" spans="1:5" s="5" customFormat="1" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C126" s="7"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="17" t="s">
+    <row r="127" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="18"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="20"/>
-    </row>
-    <row r="128" spans="1:5" s="21" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="6" t="s">
+      <c r="C127" s="10"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" s="5" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C128" s="7"/>
+      <c r="C128" s="14"/>
       <c r="D128" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="2:5" s="21" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="6" t="s">
+    <row r="129" spans="2:5" s="5" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="7"/>
+      <c r="C129" s="14"/>
       <c r="D129" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="2:5" s="21" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="6" t="s">
+    <row r="130" spans="2:5" s="5" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C130" s="7"/>
+      <c r="C130" s="14"/>
       <c r="D130" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="2:5" s="21" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="17" t="s">
+    <row r="131" spans="2:5" s="5" customFormat="1" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="20"/>
-    </row>
-    <row r="132" spans="2:5" s="21" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="6" t="s">
+      <c r="C131" s="10"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="2:5" s="5" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="7"/>
+      <c r="C132" s="14"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="B119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="B102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
@@ -2061,19 +2152,6 @@
     <mergeCell ref="B112:C112"/>
     <mergeCell ref="D112:E112"/>
     <mergeCell ref="B113:C113"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="B119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="B102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="B95:C95"/>
@@ -2083,78 +2161,18 @@
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="B128:C128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
